--- a/Testing/Testing_Cases_shinyappsio.xlsx
+++ b/Testing/Testing_Cases_shinyappsio.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\REYAR\Statsomat\Development\Descriptive_statistics_py\Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\REYAR\statsomat\Development\Descriptive_statistics_py\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2755A8DD-2A6E-4154-8D41-8C9B5DA47272}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4D1FBB-D095-4BCB-B5B0-02D94994B12B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B87B5778-91DC-4655-BD8D-0C0BF9D0D96C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">Dataset </t>
   </si>
@@ -39,91 +39,55 @@
     <t>Three_Normal</t>
   </si>
   <si>
-    <t>Electricity1955</t>
-  </si>
-  <si>
-    <t>urine</t>
-  </si>
-  <si>
-    <t>NECTAR2014</t>
-  </si>
-  <si>
-    <t>NaturalGas</t>
-  </si>
-  <si>
-    <t>OldMaps</t>
-  </si>
-  <si>
-    <t>one_char</t>
-  </si>
-  <si>
-    <t>one_char_long_labels</t>
-  </si>
-  <si>
-    <t>Baseball_small</t>
-  </si>
-  <si>
-    <t>FlowerTraits2014</t>
-  </si>
-  <si>
     <t xml:space="preserve">Is the Basic Information correct? Comparison to the Statsomat App "Exploratory Data Analysis with R".  </t>
   </si>
   <si>
-    <t xml:space="preserve">Errors or Warnings in the PDF? </t>
-  </si>
-  <si>
-    <t>Errors (not warnings) in Python Console?</t>
-  </si>
-  <si>
-    <t>Do the values from the PDF report correspond to the values from the Python console (randomly choose values to compare)</t>
-  </si>
-  <si>
-    <t>ais_small</t>
-  </si>
-  <si>
-    <t>baseball_small</t>
-  </si>
-  <si>
-    <t>cacao</t>
-  </si>
-  <si>
-    <t>bbb</t>
-  </si>
-  <si>
-    <t>CaseData</t>
-  </si>
-  <si>
-    <t>dat for Fig F4 mortality</t>
-  </si>
-  <si>
-    <t>floral duration 2016</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>quakes</t>
-  </si>
-  <si>
-    <t>stock1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Baitingdata </t>
   </si>
   <si>
     <t>GUI Selection</t>
   </si>
   <si>
-    <t xml:space="preserve">Check stats table of continuous variables with the library pastecs. Do the values correspond? </t>
-  </si>
-  <si>
     <t xml:space="preserve">Check stats of discrete variables (2 tables) with the R library Hmisc. Do the values correspond?  </t>
   </si>
   <si>
-    <t xml:space="preserve">Consider the Y axis of each plot category. Does it correspond to the  stats from the tables? Consider random checks. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Do the numbers from the pie plots correspond to the stats from freq table? Consider random checks. </t>
+  </si>
+  <si>
+    <t>Run the code from the HTML file. Do the values from the PDF report correspond to the values from the Python console (randomly choose values to compare)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check stats table of continuous variables with the R library pastecs. Do the values correspond? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consider the ranges of the X/Y axis of each plot category. Does it correspond to the stats from the tables? Consider random checks. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generate the Code. Errors or Warnings in the HTML? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generate the Report. Errors or Warnings in the PDF? </t>
+  </si>
+  <si>
+    <t>Other Comments?</t>
+  </si>
+  <si>
+    <t>Stocks_comma</t>
+  </si>
+  <si>
+    <t>russian.csv</t>
+  </si>
+  <si>
+    <t>portug.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable Selection </t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Auto/Auto/Severe</t>
   </si>
 </sst>
 </file>
@@ -182,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -203,25 +167,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -537,406 +494,179 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12BAE8-2384-4F0E-BA3D-78583B35F8DC}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" customWidth="1"/>
-    <col min="6" max="7" width="24.42578125" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" customWidth="1"/>
-    <col min="10" max="10" width="22" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="7" max="8" width="24.42578125" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" customWidth="1"/>
+    <col min="10" max="10" width="24.140625" customWidth="1"/>
+    <col min="11" max="11" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
       <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="10"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="7"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="7"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="7"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Testing/Testing_Cases_shinyappsio.xlsx
+++ b/Testing/Testing_Cases_shinyappsio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\REYAR\statsomat\Development\Descriptive_statistics_py\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4D1FBB-D095-4BCB-B5B0-02D94994B12B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25914E3E-979C-4313-8248-985B62ACD042}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B87B5778-91DC-4655-BD8D-0C0BF9D0D96C}"/>
   </bookViews>
@@ -25,23 +25,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t xml:space="preserve">Dataset </t>
   </si>
   <si>
-    <t>Ants_Impact_on_Cacao_Trees</t>
-  </si>
-  <si>
     <t>HolzingerSwineford1939</t>
   </si>
   <si>
-    <t>Three_Normal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is the Basic Information correct? Comparison to the Statsomat App "Exploratory Data Analysis with R".  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Baitingdata </t>
   </si>
   <si>
@@ -72,9 +63,6 @@
     <t>Other Comments?</t>
   </si>
   <si>
-    <t>Stocks_comma</t>
-  </si>
-  <si>
     <t>russian.csv</t>
   </si>
   <si>
@@ -88,6 +76,30 @@
   </si>
   <si>
     <t>Auto/Auto/Severe</t>
+  </si>
+  <si>
+    <t>Datensatz</t>
+  </si>
+  <si>
+    <t>Auto/Comma/Severe</t>
+  </si>
+  <si>
+    <t>Auto/Dot/Severe</t>
+  </si>
+  <si>
+    <t>Auto/Dot/Relaxed</t>
+  </si>
+  <si>
+    <t>UTF/Dot/Severe</t>
+  </si>
+  <si>
+    <t>UTF/Auto/Severe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is the Basic Information correct? Comparison to the Statsomat App "Exploratory Data Analysis With R".  </t>
+  </si>
+  <si>
+    <t>UTF/Comma/Severe</t>
   </si>
 </sst>
 </file>
@@ -494,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12BAE8-2384-4F0E-BA3D-78583B35F8DC}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,51 +528,51 @@
   <sheetData>
     <row r="1" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="11" t="s">
         <v>11</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -573,11 +585,15 @@
       <c r="L2" s="10"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+      <c r="A3" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
@@ -589,11 +605,15 @@
       <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="B4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -605,25 +625,29 @@
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="B5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
       <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="A6" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="B6" s="7" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="10"/>
@@ -637,9 +661,11 @@
       <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
       <c r="B7" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="10"/>
@@ -653,7 +679,9 @@
       <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="A8" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
@@ -668,6 +696,60 @@
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
     </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Testing/Testing_Cases_shinyappsio.xlsx
+++ b/Testing/Testing_Cases_shinyappsio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\REYAR\statsomat\Development\Descriptive_statistics_py\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25914E3E-979C-4313-8248-985B62ACD042}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A41580-E70A-4238-9310-2D92886B03C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B87B5778-91DC-4655-BD8D-0C0BF9D0D96C}"/>
   </bookViews>
@@ -39,36 +39,18 @@
     <t>GUI Selection</t>
   </si>
   <si>
-    <t xml:space="preserve">Check stats of discrete variables (2 tables) with the R library Hmisc. Do the values correspond?  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Do the numbers from the pie plots correspond to the stats from freq table? Consider random checks. </t>
   </si>
   <si>
-    <t>Run the code from the HTML file. Do the values from the PDF report correspond to the values from the Python console (randomly choose values to compare)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check stats table of continuous variables with the R library pastecs. Do the values correspond? </t>
-  </si>
-  <si>
     <t xml:space="preserve">Consider the ranges of the X/Y axis of each plot category. Does it correspond to the stats from the tables? Consider random checks. </t>
   </si>
   <si>
-    <t xml:space="preserve">Generate the Code. Errors or Warnings in the HTML? </t>
-  </si>
-  <si>
     <t xml:space="preserve">Generate the Report. Errors or Warnings in the PDF? </t>
   </si>
   <si>
     <t>Other Comments?</t>
   </si>
   <si>
-    <t>russian.csv</t>
-  </si>
-  <si>
-    <t>portug.csv</t>
-  </si>
-  <si>
     <t xml:space="preserve">Variable Selection </t>
   </si>
   <si>
@@ -96,10 +78,28 @@
     <t>UTF/Auto/Severe</t>
   </si>
   <si>
-    <t xml:space="preserve">Is the Basic Information correct? Comparison to the Statsomat App "Exploratory Data Analysis With R".  </t>
-  </si>
-  <si>
     <t>UTF/Comma/Severe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number PDF </t>
+  </si>
+  <si>
+    <t>Generate the Code and execute with Python locally. Errors or Warnings?</t>
+  </si>
+  <si>
+    <t>Generate the Code and execute with Python locally.  Do the values from the PDF tables correspond to the values from the Python console tables (randomly choose values to compare)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate stats table of continuous variables with the R library pastecs. Do the values correspond? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate stats of discrete variables (2 tables) with the R library Hmisc. Do the values correspond?  </t>
+  </si>
+  <si>
+    <t>Ants_Impact_on_Cacao_Trees.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Out of memory. </t>
   </si>
 </sst>
 </file>
@@ -123,15 +123,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -154,13 +160,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -190,6 +208,23 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -506,249 +541,433 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12BAE8-2384-4F0E-BA3D-78583B35F8DC}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1"/>
-    <col min="7" max="8" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" customWidth="1"/>
     <col min="9" max="9" width="21.42578125" customWidth="1"/>
     <col min="10" max="10" width="24.140625" customWidth="1"/>
     <col min="11" max="11" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="C7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>2</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>3</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="10"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="10"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="10"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Testing/Testing_Cases_shinyappsio.xlsx
+++ b/Testing/Testing_Cases_shinyappsio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\REYAR\statsomat\Development\Descriptive_statistics_py\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A41580-E70A-4238-9310-2D92886B03C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3182019-DBFA-4137-A557-715B224897D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B87B5778-91DC-4655-BD8D-0C0BF9D0D96C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t xml:space="preserve">Dataset </t>
   </si>
@@ -33,21 +33,12 @@
     <t>HolzingerSwineford1939</t>
   </si>
   <si>
-    <t xml:space="preserve">Baitingdata </t>
-  </si>
-  <si>
     <t>GUI Selection</t>
   </si>
   <si>
     <t xml:space="preserve">Do the numbers from the pie plots correspond to the stats from freq table? Consider random checks. </t>
   </si>
   <si>
-    <t xml:space="preserve">Consider the ranges of the X/Y axis of each plot category. Does it correspond to the stats from the tables? Consider random checks. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generate the Report. Errors or Warnings in the PDF? </t>
-  </si>
-  <si>
     <t>Other Comments?</t>
   </si>
   <si>
@@ -60,9 +51,6 @@
     <t>Auto/Auto/Severe</t>
   </si>
   <si>
-    <t>Datensatz</t>
-  </si>
-  <si>
     <t>Auto/Comma/Severe</t>
   </si>
   <si>
@@ -81,25 +69,40 @@
     <t>UTF/Comma/Severe</t>
   </si>
   <si>
-    <t xml:space="preserve">Number PDF </t>
-  </si>
-  <si>
-    <t>Generate the Code and execute with Python locally. Errors or Warnings?</t>
-  </si>
-  <si>
     <t>Generate the Code and execute with Python locally.  Do the values from the PDF tables correspond to the values from the Python console tables (randomly choose values to compare)</t>
   </si>
   <si>
-    <t xml:space="preserve">Validate stats table of continuous variables with the R library pastecs. Do the values correspond? </t>
-  </si>
-  <si>
     <t xml:space="preserve">Validate stats of discrete variables (2 tables) with the R library Hmisc. Do the values correspond?  </t>
   </si>
   <si>
     <t>Ants_Impact_on_Cacao_Trees.csv</t>
   </si>
   <si>
-    <t xml:space="preserve">Out of memory. </t>
+    <t>Out of memory</t>
+  </si>
+  <si>
+    <t>Baseball_small.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generate the PDF Report. "error" or "warning" in the PDF? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consider the ranges of the X/Y axis of each plot category. Do they correspond to the stats from the tables? Consider random checks. </t>
+  </si>
+  <si>
+    <t>Generate the Code and execute with Python locally. "error" messages?</t>
+  </si>
+  <si>
+    <t>Baitingdata</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Output PDF Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate stats table of continuous variables with the R libraries pastecs and psych. Do the values correspond? </t>
   </si>
 </sst>
 </file>
@@ -123,7 +126,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,6 +136,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -177,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -226,6 +235,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,63 +556,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12BAE8-2384-4F0E-BA3D-78583B35F8DC}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.28515625" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="5" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
     <col min="7" max="7" width="21.85546875" customWidth="1"/>
     <col min="8" max="8" width="24.42578125" customWidth="1"/>
     <col min="9" max="9" width="21.42578125" customWidth="1"/>
     <col min="10" max="10" width="24.140625" customWidth="1"/>
     <col min="11" max="11" width="23" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="K1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="10" t="s">
         <v>4</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -605,57 +621,57 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="H2" s="7"/>
+      <c r="H2" s="20"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
-      <c r="L2" s="9"/>
+      <c r="L2" s="17"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="12"/>
+        <v>6</v>
+      </c>
+      <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="7"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
-      <c r="L3" s="9"/>
+      <c r="L3" s="17"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -664,38 +680,42 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
-      <c r="L4" s="9"/>
+      <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>1</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="H5" s="7"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
-      <c r="L5" s="9"/>
+      <c r="L5" s="17"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>2</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -703,19 +723,19 @@
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
+      <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="6"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -723,19 +743,21 @@
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
+      <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
-        <v>2</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -743,19 +765,21 @@
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
+      <c r="L8" s="17"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -763,211 +787,234 @@
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-    </row>
-    <row r="10" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="17" t="s">
+      <c r="L9" s="17"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>3</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
+      <c r="D10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="17"/>
+    </row>
+    <row r="11" spans="1:12" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="19" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Testing/Testing_Cases_shinyappsio.xlsx
+++ b/Testing/Testing_Cases_shinyappsio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\REYAR\statsomat\Development\Descriptive_statistics_py\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5529E578-752D-4871-8919-7E069F4840CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73B5AF4-B3FB-480A-A0D8-453F9A287FC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B87B5778-91DC-4655-BD8D-0C0BF9D0D96C}"/>
   </bookViews>
@@ -139,7 +139,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,12 +155,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -205,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -239,7 +233,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -261,9 +254,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -581,15 +572,15 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5703125" style="6" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" style="22" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="22" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="21" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" style="6" customWidth="1"/>
     <col min="6" max="6" width="13" style="6" customWidth="1"/>
     <col min="7" max="7" width="21.7109375" style="6" customWidth="1"/>
@@ -598,7 +589,7 @@
     <col min="10" max="10" width="14.42578125" style="6" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" style="6" customWidth="1"/>
     <col min="12" max="12" width="17.140625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" style="20" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" style="19" customWidth="1"/>
     <col min="14" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
@@ -656,8 +647,8 @@
       <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="11"/>
@@ -721,7 +712,8 @@
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
-      <c r="H5" s="13"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="14"/>
       <c r="I5" s="11"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
@@ -740,10 +732,10 @@
         <v>6</v>
       </c>
       <c r="E6" s="14"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
@@ -762,24 +754,24 @@
       <c r="D7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
       <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="9" t="s">
@@ -800,7 +792,7 @@
       <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="9" t="s">
@@ -821,7 +813,7 @@
       <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="9" t="s">
@@ -837,7 +829,7 @@
       <c r="L10" s="13"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" s="20" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="B11" s="12" t="s">
         <v>7</v>
@@ -845,18 +837,18 @@
       <c r="C11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="19" t="s">
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="18" t="s">
         <v>25</v>
       </c>
     </row>
@@ -865,8 +857,8 @@
       <c r="B12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -880,8 +872,8 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -895,8 +887,8 @@
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -910,8 +902,8 @@
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -925,8 +917,8 @@
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -940,8 +932,8 @@
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -955,8 +947,8 @@
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
@@ -970,8 +962,8 @@
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -985,8 +977,8 @@
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
@@ -1000,8 +992,8 @@
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
@@ -1015,8 +1007,8 @@
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
@@ -1030,8 +1022,8 @@
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
@@ -1043,18 +1035,18 @@
       <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Testing/Testing_Cases_shinyappsio.xlsx
+++ b/Testing/Testing_Cases_shinyappsio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\REYAR\statsomat\Development\Descriptive_statistics_py\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73B5AF4-B3FB-480A-A0D8-453F9A287FC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645FA4D9-D57F-4AD7-A211-D9CAFE73F2EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B87B5778-91DC-4655-BD8D-0C0BF9D0D96C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t xml:space="preserve">Dataset </t>
   </si>
@@ -69,21 +69,12 @@
     <t>UTF/Comma/Severe</t>
   </si>
   <si>
-    <t>Generate the Code and execute with Python locally.  Do the values from the PDF tables correspond to the values from the Python console tables (randomly choose values to compare)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validate stats of discrete variables (2 tables) with the R library Hmisc. Do the values correspond?  </t>
-  </si>
-  <si>
     <t>Ants_Impact_on_Cacao_Trees.csv</t>
   </si>
   <si>
     <t>Baseball_small.csv</t>
   </si>
   <si>
-    <t xml:space="preserve">Consider the ranges of the X/Y axis of each plot category. Do they correspond to the stats from the tables? Consider random checks. </t>
-  </si>
-  <si>
     <t>Generate the Code and execute with Python locally. "error" messages?</t>
   </si>
   <si>
@@ -93,9 +84,6 @@
     <t>Finance</t>
   </si>
   <si>
-    <t xml:space="preserve">Validate stats table of continuous variables with the R libraries pastecs and psych. Do the values correspond? </t>
-  </si>
-  <si>
     <t>Files Output Name</t>
   </si>
   <si>
@@ -109,6 +97,24 @@
   </si>
   <si>
     <t>Generate the Code and execute with Python locally.  Do the plots correspond to PDF? (randomly choose values to compare)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate stats of discrete variables (2 tables) with the R library Hmisc. Are the numerical results equal resp. Similar up to xx decimals?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate stats table of continuous variables with the R libraries pastecs and psych. Are the numerical results equal resp. similar up to xx decimals?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare plots to the plots generated by the Statsomat app EDA with R app (_edarapp.pdf). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-fatal differences between R packages and edapy wrt skewness and kurtosis measures.  </t>
+  </si>
+  <si>
+    <t>Non-fatal differences between bins in histograms and the qqplots. Pie-plots without category "all other values"</t>
+  </si>
+  <si>
+    <t>Generate the Code and execute with Python locally.  Do the values from the PDF tables correspond (up to xx decimals) to the values from the console tables (randomly choose values to compare)</t>
   </si>
 </sst>
 </file>
@@ -139,7 +145,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,6 +161,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -199,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -255,6 +273,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -572,7 +594,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -587,15 +609,15 @@
     <col min="8" max="8" width="17.28515625" style="6" customWidth="1"/>
     <col min="9" max="9" width="18" style="6" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" style="6" customWidth="1"/>
     <col min="12" max="12" width="17.140625" style="6" customWidth="1"/>
     <col min="13" max="13" width="15.28515625" style="19" customWidth="1"/>
     <col min="14" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="84" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="96" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -607,25 +629,25 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>3</v>
@@ -741,38 +763,42 @@
       <c r="L6" s="13"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="84" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="23"/>
+      <c r="K7" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="23"/>
       <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>6</v>
@@ -793,7 +819,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>6</v>
@@ -814,7 +840,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>6</v>
@@ -829,13 +855,13 @@
       <c r="L10" s="13"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="19" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="B11" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>6</v>
@@ -849,13 +875,13 @@
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
       <c r="M11" s="18" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>
       <c r="B12" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>

--- a/Testing/Testing_Cases_shinyappsio.xlsx
+++ b/Testing/Testing_Cases_shinyappsio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\REYAR\statsomat\Development\Descriptive_statistics_py\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645FA4D9-D57F-4AD7-A211-D9CAFE73F2EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E283B6-DEE2-49A7-839B-A3F659FBD591}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B87B5778-91DC-4655-BD8D-0C0BF9D0D96C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
   <si>
     <t xml:space="preserve">Dataset </t>
   </si>
@@ -36,9 +36,6 @@
     <t>GUI Selection</t>
   </si>
   <si>
-    <t xml:space="preserve">Do the numbers from the pie plots correspond to the stats from freq table? Consider random checks. </t>
-  </si>
-  <si>
     <t>Other Comments?</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>Ants_Impact_on_Cacao_Trees.csv</t>
   </si>
   <si>
-    <t>Baseball_small.csv</t>
-  </si>
-  <si>
     <t>Generate the Code and execute with Python locally. "error" messages?</t>
   </si>
   <si>
@@ -96,25 +90,34 @@
     <t xml:space="preserve">Generate the PDF Report. "error" messages in the PDF? </t>
   </si>
   <si>
-    <t>Generate the Code and execute with Python locally.  Do the plots correspond to PDF? (randomly choose values to compare)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Validate stats of discrete variables (2 tables) with the R library Hmisc. Are the numerical results equal resp. Similar up to xx decimals?  </t>
   </si>
   <si>
     <t xml:space="preserve">Validate stats table of continuous variables with the R libraries pastecs and psych. Are the numerical results equal resp. similar up to xx decimals?  </t>
   </si>
   <si>
-    <t xml:space="preserve">Compare plots to the plots generated by the Statsomat app EDA with R app (_edarapp.pdf). </t>
-  </si>
-  <si>
     <t xml:space="preserve">Non-fatal differences between R packages and edapy wrt skewness and kurtosis measures.  </t>
   </si>
   <si>
     <t>Non-fatal differences between bins in histograms and the qqplots. Pie-plots without category "all other values"</t>
   </si>
   <si>
-    <t>Generate the Code and execute with Python locally.  Do the values from the PDF tables correspond (up to xx decimals) to the values from the console tables (randomly choose values to compare)</t>
+    <t>Generate the Code and execute with Python locally.  Do the values from the PDF tables correspond to the values from the console tables (randomly choose values to compare)</t>
+  </si>
+  <si>
+    <t>Generate the code and execute with Python locally.  Do the plots correspond to PDF? (randomly choose values to compare)</t>
+  </si>
+  <si>
+    <t>Column with no labels denoted on server Vi vs. Unnamed i locally</t>
+  </si>
+  <si>
+    <t>AMR_Monthly_2014-03-28.csv</t>
+  </si>
+  <si>
+    <t>Compare PDF to PDF generated by the Statsomat app EDA with R.</t>
+  </si>
+  <si>
+    <t>AMR_Monthly_2014-03-28</t>
   </si>
 </sst>
 </file>
@@ -217,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -275,6 +278,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -591,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12BAE8-2384-4F0E-BA3D-78583B35F8DC}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -605,19 +614,18 @@
     <col min="4" max="4" width="8.7109375" style="21" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" style="6" customWidth="1"/>
     <col min="6" max="6" width="13" style="6" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="18" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="17.140625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" style="19" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="6"/>
+    <col min="7" max="7" width="20.42578125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="18" style="6" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" style="19" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="96" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="96" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -626,182 +634,175 @@
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="10"/>
+        <v>5</v>
+      </c>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="11"/>
       <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="12"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L2" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="11"/>
       <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="12"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L3" s="12"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="11"/>
       <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="12"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L4" s="12"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="22"/>
       <c r="H5" s="14"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
       <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="12"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L5" s="12"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="14"/>
       <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="12"/>
-    </row>
-    <row r="7" spans="1:13" ht="84" x14ac:dyDescent="0.2">
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" spans="1:12" ht="96" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
       <c r="H7" s="23"/>
       <c r="I7" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" s="23"/>
-      <c r="M7" s="12"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="23"/>
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="13"/>
@@ -810,19 +811,18 @@
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="12"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
       <c r="B9" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -831,19 +831,18 @@
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="12"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
       <c r="B10" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -852,19 +851,18 @@
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="12"/>
-    </row>
-    <row r="11" spans="1:13" s="19" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" s="19" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="B11" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
@@ -873,29 +871,33 @@
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="L11" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="16"/>
@@ -908,9 +910,8 @@
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="16"/>
@@ -923,9 +924,8 @@
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="16"/>
@@ -938,9 +938,8 @@
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="16"/>
@@ -953,9 +952,8 @@
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="16"/>
@@ -968,9 +966,8 @@
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="16"/>
@@ -983,9 +980,8 @@
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="16"/>
@@ -998,9 +994,8 @@
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="16"/>
@@ -1013,9 +1008,8 @@
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="16"/>
@@ -1028,9 +1022,8 @@
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="16"/>
@@ -1043,9 +1036,8 @@
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="16"/>
@@ -1058,9 +1050,8 @@
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="19"/>
       <c r="B24" s="19"/>
       <c r="C24" s="20"/>
@@ -1072,7 +1063,6 @@
       <c r="I24" s="19"/>
       <c r="J24" s="19"/>
       <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Testing/Testing_Cases_shinyappsio.xlsx
+++ b/Testing/Testing_Cases_shinyappsio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\REYAR\statsomat\Development\Descriptive_statistics_py\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E283B6-DEE2-49A7-839B-A3F659FBD591}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDBD6F1-A329-48CE-A305-B478D6CB64C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B87B5778-91DC-4655-BD8D-0C0BF9D0D96C}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
-  <si>
-    <t xml:space="preserve">Dataset </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
   <si>
     <t>HolzingerSwineford1939</t>
   </si>
@@ -78,15 +75,9 @@
     <t>Finance</t>
   </si>
   <si>
-    <t>Files Output Name</t>
-  </si>
-  <si>
     <t>See code</t>
   </si>
   <si>
-    <t>Out of memory on Shinyapps.io</t>
-  </si>
-  <si>
     <t xml:space="preserve">Generate the PDF Report. "error" messages in the PDF? </t>
   </si>
   <si>
@@ -96,28 +87,55 @@
     <t xml:space="preserve">Validate stats table of continuous variables with the R libraries pastecs and psych. Are the numerical results equal resp. similar up to xx decimals?  </t>
   </si>
   <si>
-    <t xml:space="preserve">Non-fatal differences between R packages and edapy wrt skewness and kurtosis measures.  </t>
-  </si>
-  <si>
-    <t>Non-fatal differences between bins in histograms and the qqplots. Pie-plots without category "all other values"</t>
-  </si>
-  <si>
     <t>Generate the Code and execute with Python locally.  Do the values from the PDF tables correspond to the values from the console tables (randomly choose values to compare)</t>
   </si>
   <si>
     <t>Generate the code and execute with Python locally.  Do the plots correspond to PDF? (randomly choose values to compare)</t>
   </si>
   <si>
-    <t>Column with no labels denoted on server Vi vs. Unnamed i locally</t>
-  </si>
-  <si>
     <t>AMR_Monthly_2014-03-28.csv</t>
   </si>
   <si>
     <t>Compare PDF to PDF generated by the Statsomat app EDA with R.</t>
   </si>
   <si>
-    <t>AMR_Monthly_2014-03-28</t>
+    <t xml:space="preserve">Column with no labels denoted on server Vi vs. Unnamed i locally. Non-fatal differences edar app vs edapy between bins in histograms and the qqplots. Pie-plots without category "all other values". Non-fatal differences between R packages and edapy wrt skewness and kurtosis measures.  </t>
+  </si>
+  <si>
+    <t>1001rows.csv</t>
+  </si>
+  <si>
+    <t>same as input file</t>
+  </si>
+  <si>
+    <t>Input file</t>
+  </si>
+  <si>
+    <t>Output Files Name</t>
+  </si>
+  <si>
+    <t>Baseball_small.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Out of memory on Shinyapps.io. Probable cause: Histogram summary chunk. Consider in next version. </t>
+  </si>
+  <si>
+    <t>HolzingerSwineford1939_2</t>
+  </si>
+  <si>
+    <t>Finance_2</t>
+  </si>
+  <si>
+    <t>HolzingerSwineford1939_3</t>
+  </si>
+  <si>
+    <t>HolzingerSwineford1939_4</t>
+  </si>
+  <si>
+    <t>HolzingerSwineford1939_5</t>
+  </si>
+  <si>
+    <t>Finance_3</t>
   </si>
 </sst>
 </file>
@@ -220,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -285,6 +303,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -603,12 +624,12 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="6" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="6" customWidth="1"/>
     <col min="3" max="3" width="26.85546875" style="21" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" style="21" customWidth="1"/>
@@ -619,84 +640,86 @@
     <col min="9" max="9" width="15.7109375" style="6" customWidth="1"/>
     <col min="10" max="10" width="18" style="6" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" style="19" customWidth="1"/>
+    <col min="12" max="12" width="40.7109375" style="19" customWidth="1"/>
     <col min="13" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="96" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:12" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>5</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
       <c r="H2" s="25"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="10"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="25"/>
       <c r="L2" s="24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="13"/>
+      <c r="A3" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="B3" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="10"/>
+        <v>4</v>
+      </c>
+      <c r="E3" s="25"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -706,15 +729,17 @@
       <c r="L3" s="12"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
+      <c r="A4" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="B4" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
@@ -726,15 +751,17 @@
       <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
+      <c r="A5" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="B5" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -746,15 +773,17 @@
       <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
+      <c r="A6" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="B6" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
@@ -765,64 +794,64 @@
       <c r="K6" s="13"/>
       <c r="L6" s="12"/>
     </row>
-    <row r="7" spans="1:12" ht="96" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
       <c r="H7" s="23"/>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="23"/>
-      <c r="L7" s="12"/>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="12"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="C9" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -834,15 +863,17 @@
       <c r="L9" s="12"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
+      <c r="A10" s="15" t="s">
+        <v>36</v>
+      </c>
       <c r="B10" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -853,16 +884,16 @@
       <c r="K10" s="13"/>
       <c r="L10" s="12"/>
     </row>
-    <row r="11" spans="1:12" s="19" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="B11" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
@@ -872,21 +903,21 @@
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
       <c r="L11" s="18" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="26"/>
@@ -898,12 +929,20 @@
       <c r="L12" s="12"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="A13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
@@ -912,12 +951,20 @@
       <c r="L13" s="12"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="A14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>

--- a/Testing/Testing_Cases_shinyappsio.xlsx
+++ b/Testing/Testing_Cases_shinyappsio.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\REYAR\statsomat\Development\Descriptive_statistics_py\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDBD6F1-A329-48CE-A305-B478D6CB64C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED28BE06-76BF-4FF9-BF68-9C61FDC130BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B87B5778-91DC-4655-BD8D-0C0BF9D0D96C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="83">
   <si>
     <t>HolzingerSwineford1939</t>
   </si>
@@ -96,18 +96,9 @@
     <t>AMR_Monthly_2014-03-28.csv</t>
   </si>
   <si>
-    <t>Compare PDF to PDF generated by the Statsomat app EDA with R.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Column with no labels denoted on server Vi vs. Unnamed i locally. Non-fatal differences edar app vs edapy between bins in histograms and the qqplots. Pie-plots without category "all other values". Non-fatal differences between R packages and edapy wrt skewness and kurtosis measures.  </t>
-  </si>
-  <si>
     <t>1001rows.csv</t>
   </si>
   <si>
-    <t>same as input file</t>
-  </si>
-  <si>
     <t>Input file</t>
   </si>
   <si>
@@ -117,9 +108,6 @@
     <t>Baseball_small.csv</t>
   </si>
   <si>
-    <t xml:space="preserve">Out of memory on Shinyapps.io. Probable cause: Histogram summary chunk. Consider in next version. </t>
-  </si>
-  <si>
     <t>HolzingerSwineford1939_2</t>
   </si>
   <si>
@@ -136,13 +124,163 @@
   </si>
   <si>
     <t>Finance_3</t>
+  </si>
+  <si>
+    <t>Bodymass.csv</t>
+  </si>
+  <si>
+    <t>ais_small.csv</t>
+  </si>
+  <si>
+    <t>bbb</t>
+  </si>
+  <si>
+    <t>big_data</t>
+  </si>
+  <si>
+    <t>BM_merged.csv</t>
+  </si>
+  <si>
+    <t>CaseData.csv</t>
+  </si>
+  <si>
+    <t>CreditCard.csv</t>
+  </si>
+  <si>
+    <t>dat for Fig F4 mortality</t>
+  </si>
+  <si>
+    <t>Datensatz.csv</t>
+  </si>
+  <si>
+    <t>data for Fig 7 photogate and 20E.csv</t>
+  </si>
+  <si>
+    <t>Electricity1955.csv</t>
+  </si>
+  <si>
+    <t>EuStockMarkets.csv</t>
+  </si>
+  <si>
+    <t>FieldFishSize.csv</t>
+  </si>
+  <si>
+    <t>FishSize.csv</t>
+  </si>
+  <si>
+    <t>loral duration 2016.csv</t>
+  </si>
+  <si>
+    <t>FlowerTraits2014.csv</t>
+  </si>
+  <si>
+    <t>FlycatcherDatabase.csv</t>
+  </si>
+  <si>
+    <t>GrinnellHouses.csv</t>
+  </si>
+  <si>
+    <t>height.csv</t>
+  </si>
+  <si>
+    <t>Hmda.csv</t>
+  </si>
+  <si>
+    <t>HouseholdData.csv</t>
+  </si>
+  <si>
+    <t>see code</t>
+  </si>
+  <si>
+    <t>InoculumTrialsCounts2014.csv</t>
+  </si>
+  <si>
+    <t>InoculumTrials2014.csv</t>
+  </si>
+  <si>
+    <t>JTMD_Data.csv</t>
+  </si>
+  <si>
+    <t>KristenCounts.csv</t>
+  </si>
+  <si>
+    <t>KristenTrials.csv</t>
+  </si>
+  <si>
+    <t>KristenWings.csv</t>
+  </si>
+  <si>
+    <t>MergedInocTrials.csv</t>
+  </si>
+  <si>
+    <t>NaturalGas.csv</t>
+  </si>
+  <si>
+    <t>NECTAR2014.csv</t>
+  </si>
+  <si>
+    <t>Normal.csv</t>
+  </si>
+  <si>
+    <t>NOxEmissions_small.csv</t>
+  </si>
+  <si>
+    <t>OldMaps.csv</t>
+  </si>
+  <si>
+    <t>One_char.csv</t>
+  </si>
+  <si>
+    <t>one_char_long_labels.csv</t>
+  </si>
+  <si>
+    <t>one_numeric.csv</t>
+  </si>
+  <si>
+    <t>quakes.csv</t>
+  </si>
+  <si>
+    <t>RacialAnimus.csv</t>
+  </si>
+  <si>
+    <t>sensor_readings_2_small.csv</t>
+  </si>
+  <si>
+    <t>stock1.csv</t>
+  </si>
+  <si>
+    <t>survival_data.csv</t>
+  </si>
+  <si>
+    <t>urine.csv</t>
+  </si>
+  <si>
+    <t>VillageData.csv</t>
+  </si>
+  <si>
+    <t>Wells.csv</t>
+  </si>
+  <si>
+    <t>WingMeasurementData.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Column with no labels denoted on server Vi vs. Unnamed i locally. Non-fatal differences edar app vs edapy between bins in histograms and the qqplots. Non-fatal differences between R packages and edapy wrt skewness and kurtosis measures.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alphanumeric sorting on Shinyapps.io in freq table different to local system. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add automatic setting for the encoding to pd.read_csv for local execution (in next version). </t>
+  </si>
+  <si>
+    <t>Compare to PDF generated by the Statsomat app EDA with R.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,25 +303,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -193,12 +332,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -221,29 +366,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -257,7 +388,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -278,34 +408,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -621,40 +762,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12BAE8-2384-4F0E-BA3D-78583B35F8DC}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" style="21" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="21" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="13" style="6" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="6" customWidth="1"/>
-    <col min="10" max="10" width="18" style="6" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="40.7109375" style="19" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="23.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13" style="5" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="18" style="5" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="40.7109375" style="15" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="96" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -670,7 +811,7 @@
         <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>19</v>
@@ -678,438 +819,1217 @@
       <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="24" t="s">
-        <v>24</v>
+      <c r="D2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="25" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="12"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="D6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="10"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" spans="1:12" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="12"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="D15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="12"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="D16" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+    </row>
+    <row r="18" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="12"/>
-    </row>
-    <row r="7" spans="1:12" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="D18" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="12"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="12"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="12"/>
-    </row>
-    <row r="11" spans="1:12" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="9" t="s">
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+    </row>
+    <row r="20" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="24"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="10"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="23"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="24"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="10"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="10"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="10"/>
+    </row>
+    <row r="29" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="22"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="10"/>
+    </row>
+    <row r="31" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="10"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="26"/>
+    </row>
+    <row r="33" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="21"/>
+    </row>
+    <row r="34" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="10"/>
+    </row>
+    <row r="35" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="10"/>
+    </row>
+    <row r="36" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="10"/>
+    </row>
+    <row r="37" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="10"/>
+    </row>
+    <row r="38" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="10"/>
+    </row>
+    <row r="39" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="10"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="10"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="10"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="10"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="10"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="17"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="21"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="10"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" s="29"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="21"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="10"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="11"/>
+      <c r="B48" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="24"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="21"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="21"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="17"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="21"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="11"/>
+      <c r="B52" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="10"/>
+    </row>
+    <row r="53" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D53" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="10"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D55" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="17"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="21"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" s="11"/>
+      <c r="B56" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D56" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="10"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="11"/>
+      <c r="B57" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D57" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="10"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="11"/>
+      <c r="B58" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="10"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" s="11"/>
+      <c r="B59" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D59" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="10"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" s="11"/>
+      <c r="B60" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D60" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
